--- a/data.xlsx
+++ b/data.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>id</t>
   </si>
@@ -55,76 +55,37 @@
     <t>pinHash</t>
   </si>
   <si>
-    <t>wji2s4m927c</t>
-  </si>
-  <si>
-    <t>lge8xfbh</t>
-  </si>
-  <si>
-    <t>CTY ABC</t>
-  </si>
-  <si>
-    <t>Madam Thu Bakery, 21C, Võ Văn Tần, Ninh Kiều, Ninh Kiều District, Cần Thơ, 94111, Vietnam</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/search/?api=1&amp;query=10.032100,105.786400</t>
-  </si>
-  <si>
-    <t>2025-08-13T00:44:17.487Z</t>
-  </si>
-  <si>
-    <t>Nhà mặt tiền</t>
-  </si>
-  <si>
-    <t>123456789</t>
-  </si>
-  <si>
-    <t>KHCN</t>
-  </si>
-  <si>
-    <t>123456789123</t>
+    <t>zdxwxqmyo3o</t>
+  </si>
+  <si>
+    <t>DEMOT9QZ</t>
+  </si>
+  <si>
+    <t>Hộ kinh doanh Trần Văn A</t>
+  </si>
+  <si>
+    <t>02 Hòa Bình, Ninh Kiều, Cần Thơ</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/search/?api=1&amp;query=02%20H%C3%B2a%20B%C3%ACnh%2C%20Ninh%20Ki%E1%BB%81u%2C%20C%E1%BA%A7n%20Th%C6%A1</t>
+  </si>
+  <si>
+    <t>2025-08-13T00:50:53.687Z</t>
+  </si>
+  <si>
+    <t>Dòng mẫu để thử tính năng</t>
+  </si>
+  <si>
+    <t>0901234567</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>012345678901</t>
   </si>
   <si>
     <t>KH0001</t>
-  </si>
-  <si>
-    <t>Nguyễn Văn C</t>
-  </si>
-  <si>
-    <t>e391b98ab2aeacad</t>
-  </si>
-  <si>
-    <t>022e6ce69cbbcd73079a27a51ac2feaeaeee24aa5bb90c523d23a1bcf453470a</t>
-  </si>
-  <si>
-    <t>d4ulxpdy78u</t>
-  </si>
-  <si>
-    <t>DEMOAGNL</t>
-  </si>
-  <si>
-    <t>Hộ kinh doanh Trần Văn A</t>
-  </si>
-  <si>
-    <t>02 Hòa Bình, Ninh Kiều, Cần Thơ</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/search/?api=1&amp;query=02%20H%C3%B2a%20B%C3%ACnh%2C%20Ninh%20Ki%E1%BB%81u%2C%20C%E1%BA%A7n%20Th%C6%A1</t>
-  </si>
-  <si>
-    <t>2025-08-13T00:39:23.286Z</t>
-  </si>
-  <si>
-    <t>Dòng mẫu để thử tính năng</t>
-  </si>
-  <si>
-    <t>0901234567</t>
-  </si>
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>012345678901</t>
   </si>
   <si>
     <t>Demo User</t>
@@ -528,7 +489,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -635,51 +596,7 @@
         <v>26</v>
       </c>
       <c r="N2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G3" t="s">
-        <v>34</v>
-      </c>
-      <c r="H3" t="s">
-        <v>35</v>
-      </c>
-      <c r="I3" t="s">
-        <v>36</v>
-      </c>
-      <c r="J3" t="s">
-        <v>37</v>
-      </c>
-      <c r="K3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L3" t="s">
-        <v>38</v>
-      </c>
-      <c r="M3" t="s">
-        <v>39</v>
-      </c>
-      <c r="N3" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
   <si>
     <t>id</t>
   </si>
@@ -37,7 +37,7 @@
     <t>phone</t>
   </si>
   <si>
-    <t>group</t>
+    <t>branch</t>
   </si>
   <si>
     <t>cccd</t>
@@ -55,6 +55,45 @@
     <t>pinHash</t>
   </si>
   <si>
+    <t>a4do63e3aba</t>
+  </si>
+  <si>
+    <t>TESTM9R7</t>
+  </si>
+  <si>
+    <t>Hộ kinh doanh Test 85H7</t>
+  </si>
+  <si>
+    <t>02 Hòa Bình, Ninh Kiều, Cần Thơ</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/search/?api=1&amp;query=02%20H%C3%B2a%20B%C3%ACnh%2C%20Ninh%20Ki%E1%BB%81u%2C%20C%E1%BA%A7n%20Th%C6%A1</t>
+  </si>
+  <si>
+    <t>2025-08-13T08:49:42.394Z</t>
+  </si>
+  <si>
+    <t>Dòng test thêm nhanh</t>
+  </si>
+  <si>
+    <t>0908405063</t>
+  </si>
+  <si>
+    <t>CN Cần Thơ II</t>
+  </si>
+  <si>
+    <t>0405341183179</t>
+  </si>
+  <si>
+    <t>KH3284</t>
+  </si>
+  <si>
+    <t>Demo User</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>zdxwxqmyo3o</t>
   </si>
   <si>
@@ -64,12 +103,6 @@
     <t>Hộ kinh doanh Trần Văn A</t>
   </si>
   <si>
-    <t>02 Hòa Bình, Ninh Kiều, Cần Thơ</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/search/?api=1&amp;query=02%20H%C3%B2a%20B%C3%ACnh%2C%20Ninh%20Ki%E1%BB%81u%2C%20C%E1%BA%A7n%20Th%C6%A1</t>
-  </si>
-  <si>
     <t>2025-08-13T00:50:53.687Z</t>
   </si>
   <si>
@@ -86,19 +119,13 @@
   </si>
   <si>
     <t>KH0001</t>
-  </si>
-  <si>
-    <t>Demo User</t>
-  </si>
-  <si>
-    <t/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <color theme="1"/>
       <family val="2"/>
@@ -106,25 +133,16 @@
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
-    <font>
-      <b/>
-      <color rgb="FF3B0E40"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF6EAF2"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -132,24 +150,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFCCC0D9"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -489,7 +495,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -498,60 +504,54 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="1" width="25" customWidth="1"/>
-    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="1" max="2" width="18" customWidth="1"/>
     <col min="3" max="3" width="30" customWidth="1"/>
     <col min="4" max="4" width="40" customWidth="1"/>
     <col min="5" max="5" width="60" customWidth="1"/>
-    <col min="6" max="6" width="24" customWidth="1"/>
-    <col min="7" max="7" width="30" customWidth="1"/>
-    <col min="8" max="11" width="18" customWidth="1"/>
-    <col min="12" max="12" width="24" customWidth="1"/>
-    <col min="13" max="13" width="16" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="64" hidden="1" customWidth="1"/>
+    <col min="6" max="14" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="22" customHeight="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -599,8 +599,51 @@
         <v>26</v>
       </c>
     </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N3" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:N1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
 </worksheet>

--- a/data.xlsx
+++ b/data.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="56">
   <si>
     <t>id</t>
   </si>
@@ -55,6 +55,48 @@
     <t>pinHash</t>
   </si>
   <si>
+    <t>o1il1v7hagg</t>
+  </si>
+  <si>
+    <t>kf3os4gb</t>
+  </si>
+  <si>
+    <t>Cá nhân Trần Thị C</t>
+  </si>
+  <si>
+    <t>Madam Thu Bakery, 21C, Võ Văn Tần, Ninh Kiều, Ninh Kiều District, Cần Thơ, 94111, Vietnam</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/search/?api=1&amp;query=10.032100,105.786400</t>
+  </si>
+  <si>
+    <t>2025-08-13T11:30:41.187Z</t>
+  </si>
+  <si>
+    <t>Nhà mặt tiền</t>
+  </si>
+  <si>
+    <t>0123456789</t>
+  </si>
+  <si>
+    <t>CN Cần Thơ II</t>
+  </si>
+  <si>
+    <t>123456789012</t>
+  </si>
+  <si>
+    <t>189000000000</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn B</t>
+  </si>
+  <si>
+    <t>199b06c9666112e3</t>
+  </si>
+  <si>
+    <t>05a2ba5a8101d0cf14b11a9a0ccc45b3396eb8b6ba08821e6d600aef76960b8d</t>
+  </si>
+  <si>
     <t>a4do63e3aba</t>
   </si>
   <si>
@@ -79,9 +121,6 @@
     <t>0908405063</t>
   </si>
   <si>
-    <t>CN Cần Thơ II</t>
-  </si>
-  <si>
     <t>0405341183179</t>
   </si>
   <si>
@@ -92,6 +131,27 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t>xpodt5txnr</t>
+  </si>
+  <si>
+    <t>TESTM8BT</t>
+  </si>
+  <si>
+    <t>Hộ kinh doanh Test 3WEL</t>
+  </si>
+  <si>
+    <t>2025-08-13T08:09:42.524Z</t>
+  </si>
+  <si>
+    <t>0905167266</t>
+  </si>
+  <si>
+    <t>0342835098143</t>
+  </si>
+  <si>
+    <t>KH5912</t>
   </si>
   <si>
     <t>zdxwxqmyo3o</t>
@@ -495,7 +555,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -596,51 +656,139 @@
         <v>26</v>
       </c>
       <c r="N2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="F3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L3" t="s">
+        <v>38</v>
+      </c>
+      <c r="M3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" t="s">
         <v>31</v>
       </c>
-      <c r="H3" t="s">
+      <c r="E4" t="s">
         <v>32</v>
       </c>
-      <c r="I3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="F4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" t="s">
         <v>34</v>
       </c>
-      <c r="K3" t="s">
-        <v>35</v>
-      </c>
-      <c r="L3" t="s">
-        <v>25</v>
-      </c>
-      <c r="M3" t="s">
-        <v>26</v>
-      </c>
-      <c r="N3" t="s">
-        <v>26</v>
+      <c r="H4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" t="s">
+        <v>45</v>
+      </c>
+      <c r="K4" t="s">
+        <v>46</v>
+      </c>
+      <c r="L4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M4" t="s">
+        <v>39</v>
+      </c>
+      <c r="N4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J5" t="s">
+        <v>54</v>
+      </c>
+      <c r="K5" t="s">
+        <v>55</v>
+      </c>
+      <c r="L5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N5" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -55,13 +55,13 @@
     <t>pinHash</t>
   </si>
   <si>
-    <t>o1il1v7hagg</t>
-  </si>
-  <si>
-    <t>kf3os4gb</t>
-  </si>
-  <si>
-    <t>Cá nhân Trần Thị C</t>
+    <t>8p1jaw70gl3</t>
+  </si>
+  <si>
+    <t>m396pkz6</t>
+  </si>
+  <si>
+    <t>Cá nhân Huỳnh Thị Thanh Thúy</t>
   </si>
   <si>
     <t>Madam Thu Bakery, 21C, Võ Văn Tần, Ninh Kiều, Ninh Kiều District, Cần Thơ, 94111, Vietnam</t>
@@ -70,40 +70,40 @@
     <t>https://www.google.com/maps/search/?api=1&amp;query=10.032100,105.786400</t>
   </si>
   <si>
-    <t>2025-08-13T11:30:41.187Z</t>
-  </si>
-  <si>
-    <t>Nhà mặt tiền</t>
-  </si>
-  <si>
-    <t>0123456789</t>
+    <t>2025-08-14T06:34:09.443Z</t>
+  </si>
+  <si>
+    <t>Nhà mặt tiền giá trị cao</t>
+  </si>
+  <si>
+    <t>09134563456</t>
   </si>
   <si>
     <t>CN Cần Thơ II</t>
   </si>
   <si>
-    <t>123456789012</t>
-  </si>
-  <si>
-    <t>189000000000</t>
-  </si>
-  <si>
-    <t>Nguyễn Văn B</t>
-  </si>
-  <si>
-    <t>199b06c9666112e3</t>
-  </si>
-  <si>
-    <t>05a2ba5a8101d0cf14b11a9a0ccc45b3396eb8b6ba08821e6d600aef76960b8d</t>
-  </si>
-  <si>
-    <t>a4do63e3aba</t>
-  </si>
-  <si>
-    <t>TESTM9R7</t>
-  </si>
-  <si>
-    <t>Hộ kinh doanh Test 85H7</t>
+    <t>123456789102</t>
+  </si>
+  <si>
+    <t>1890000000</t>
+  </si>
+  <si>
+    <t>Huỳnh Thị Thanh Thúy</t>
+  </si>
+  <si>
+    <t>40304b41a6114ed9</t>
+  </si>
+  <si>
+    <t>bde53dff6af6c2afebd7bcbd1b423ae3c27e01a566782dd87b0ae00ad65d259b</t>
+  </si>
+  <si>
+    <t>q7aklukam98</t>
+  </si>
+  <si>
+    <t>TESTXO03</t>
+  </si>
+  <si>
+    <t>Hộ kinh doanh Test TFS3</t>
   </si>
   <si>
     <t>02 Hòa Bình, Ninh Kiều, Cần Thơ</t>
@@ -112,19 +112,19 @@
     <t>https://www.google.com/maps/search/?api=1&amp;query=02%20H%C3%B2a%20B%C3%ACnh%2C%20Ninh%20Ki%E1%BB%81u%2C%20C%E1%BA%A7n%20Th%C6%A1</t>
   </si>
   <si>
-    <t>2025-08-13T08:49:42.394Z</t>
+    <t>2025-08-14T06:21:07.541Z</t>
   </si>
   <si>
     <t>Dòng test thêm nhanh</t>
   </si>
   <si>
-    <t>0908405063</t>
-  </si>
-  <si>
-    <t>0405341183179</t>
-  </si>
-  <si>
-    <t>KH3284</t>
+    <t>0908699201</t>
+  </si>
+  <si>
+    <t>0339828908379</t>
+  </si>
+  <si>
+    <t>KH5502</t>
   </si>
   <si>
     <t>Demo User</t>
@@ -133,46 +133,22 @@
     <t/>
   </si>
   <si>
-    <t>xpodt5txnr</t>
-  </si>
-  <si>
-    <t>TESTM8BT</t>
-  </si>
-  <si>
-    <t>Hộ kinh doanh Test 3WEL</t>
-  </si>
-  <si>
-    <t>2025-08-13T08:09:42.524Z</t>
-  </si>
-  <si>
-    <t>0905167266</t>
-  </si>
-  <si>
-    <t>0342835098143</t>
-  </si>
-  <si>
-    <t>KH5912</t>
-  </si>
-  <si>
-    <t>zdxwxqmyo3o</t>
-  </si>
-  <si>
-    <t>DEMOT9QZ</t>
+    <t>lt7ouixns1</t>
+  </si>
+  <si>
+    <t>DEMOJGGQ</t>
   </si>
   <si>
     <t>Hộ kinh doanh Trần Văn A</t>
   </si>
   <si>
-    <t>2025-08-13T00:50:53.687Z</t>
-  </si>
-  <si>
-    <t>Dòng mẫu để thử tính năng</t>
+    <t>2025-08-14T06:18:53.958Z</t>
+  </si>
+  <si>
+    <t>Dòng mẫu để thử</t>
   </si>
   <si>
     <t>0901234567</t>
-  </si>
-  <si>
-    <t>Test</t>
   </si>
   <si>
     <t>012345678901</t>
@@ -555,7 +531,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -723,19 +699,19 @@
         <v>43</v>
       </c>
       <c r="G4" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I4" t="s">
         <v>22</v>
       </c>
       <c r="J4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L4" t="s">
         <v>38</v>
@@ -744,50 +720,6 @@
         <v>39</v>
       </c>
       <c r="N4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" t="s">
-        <v>50</v>
-      </c>
-      <c r="G5" t="s">
-        <v>51</v>
-      </c>
-      <c r="H5" t="s">
-        <v>52</v>
-      </c>
-      <c r="I5" t="s">
-        <v>53</v>
-      </c>
-      <c r="J5" t="s">
-        <v>54</v>
-      </c>
-      <c r="K5" t="s">
-        <v>55</v>
-      </c>
-      <c r="L5" t="s">
-        <v>38</v>
-      </c>
-      <c r="M5" t="s">
-        <v>39</v>
-      </c>
-      <c r="N5" t="s">
         <v>39</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>id</t>
   </si>
@@ -55,106 +55,43 @@
     <t>pinHash</t>
   </si>
   <si>
-    <t>8p1jaw70gl3</t>
-  </si>
-  <si>
-    <t>m396pkz6</t>
-  </si>
-  <si>
-    <t>Cá nhân Huỳnh Thị Thanh Thúy</t>
-  </si>
-  <si>
-    <t>Madam Thu Bakery, 21C, Võ Văn Tần, Ninh Kiều, Ninh Kiều District, Cần Thơ, 94111, Vietnam</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/search/?api=1&amp;query=10.032100,105.786400</t>
-  </si>
-  <si>
-    <t>2025-08-14T06:34:09.443Z</t>
-  </si>
-  <si>
-    <t>Nhà mặt tiền giá trị cao</t>
-  </si>
-  <si>
-    <t>09134563456</t>
+    <t>0kbwrl1cwnf8</t>
+  </si>
+  <si>
+    <t>DEMOM9CC</t>
+  </si>
+  <si>
+    <t>Hộ kinh doanh Trần Văn A</t>
+  </si>
+  <si>
+    <t>02 Hòa Bình, Ninh Kiều, Cần Thơ</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/search/?api=1&amp;query=02%20H%C3%B2a%20B%C3%ACnh%2C%20Ninh%20Ki%E1%BB%81u%2C%20C%E1%BA%A7n%20Th%C6%A1</t>
+  </si>
+  <si>
+    <t>2025-08-15T01:18:36.878Z</t>
+  </si>
+  <si>
+    <t>Dòng mẫu để thử</t>
+  </si>
+  <si>
+    <t>0901234567</t>
   </si>
   <si>
     <t>CN Cần Thơ II</t>
   </si>
   <si>
-    <t>123456789102</t>
-  </si>
-  <si>
-    <t>1890000000</t>
-  </si>
-  <si>
-    <t>Huỳnh Thị Thanh Thúy</t>
-  </si>
-  <si>
-    <t>40304b41a6114ed9</t>
-  </si>
-  <si>
-    <t>bde53dff6af6c2afebd7bcbd1b423ae3c27e01a566782dd87b0ae00ad65d259b</t>
-  </si>
-  <si>
-    <t>q7aklukam98</t>
-  </si>
-  <si>
-    <t>TESTXO03</t>
-  </si>
-  <si>
-    <t>Hộ kinh doanh Test TFS3</t>
-  </si>
-  <si>
-    <t>02 Hòa Bình, Ninh Kiều, Cần Thơ</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/search/?api=1&amp;query=02%20H%C3%B2a%20B%C3%ACnh%2C%20Ninh%20Ki%E1%BB%81u%2C%20C%E1%BA%A7n%20Th%C6%A1</t>
-  </si>
-  <si>
-    <t>2025-08-14T06:21:07.541Z</t>
-  </si>
-  <si>
-    <t>Dòng test thêm nhanh</t>
-  </si>
-  <si>
-    <t>0908699201</t>
-  </si>
-  <si>
-    <t>0339828908379</t>
-  </si>
-  <si>
-    <t>KH5502</t>
+    <t>012345678901</t>
+  </si>
+  <si>
+    <t>KH0001</t>
   </si>
   <si>
     <t>Demo User</t>
   </si>
   <si>
     <t/>
-  </si>
-  <si>
-    <t>lt7ouixns1</t>
-  </si>
-  <si>
-    <t>DEMOJGGQ</t>
-  </si>
-  <si>
-    <t>Hộ kinh doanh Trần Văn A</t>
-  </si>
-  <si>
-    <t>2025-08-14T06:18:53.958Z</t>
-  </si>
-  <si>
-    <t>Dòng mẫu để thử</t>
-  </si>
-  <si>
-    <t>0901234567</t>
-  </si>
-  <si>
-    <t>012345678901</t>
-  </si>
-  <si>
-    <t>KH0001</t>
   </si>
 </sst>
 </file>
@@ -531,7 +468,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -632,95 +569,7 @@
         <v>26</v>
       </c>
       <c r="N2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G3" t="s">
-        <v>34</v>
-      </c>
-      <c r="H3" t="s">
-        <v>35</v>
-      </c>
-      <c r="I3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" t="s">
-        <v>36</v>
-      </c>
-      <c r="K3" t="s">
-        <v>37</v>
-      </c>
-      <c r="L3" t="s">
-        <v>38</v>
-      </c>
-      <c r="M3" t="s">
-        <v>39</v>
-      </c>
-      <c r="N3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H4" t="s">
-        <v>45</v>
-      </c>
-      <c r="I4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4" t="s">
-        <v>46</v>
-      </c>
-      <c r="K4" t="s">
-        <v>47</v>
-      </c>
-      <c r="L4" t="s">
-        <v>38</v>
-      </c>
-      <c r="M4" t="s">
-        <v>39</v>
-      </c>
-      <c r="N4" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
   <si>
     <t>id</t>
   </si>
@@ -53,6 +53,48 @@
   </si>
   <si>
     <t>pinHash</t>
+  </si>
+  <si>
+    <t>szftt0p9akg</t>
+  </si>
+  <si>
+    <t>ucfg394p</t>
+  </si>
+  <si>
+    <t>Nhà hộ kinh doanh nhỏ Nguyễn Thành trung</t>
+  </si>
+  <si>
+    <t>Madam Thu Bakery, 21C, Võ Văn Tần, Ninh Kiều, Ninh Kiều District, Cần Thơ, 94111, Vietnam</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/search/?api=1&amp;query=10.032100,105.786400</t>
+  </si>
+  <si>
+    <t>2025-08-15T01:51:41.600Z</t>
+  </si>
+  <si>
+    <t>Nhà hẻm</t>
+  </si>
+  <si>
+    <t>01234567810</t>
+  </si>
+  <si>
+    <t>1890</t>
+  </si>
+  <si>
+    <t>123456789101</t>
+  </si>
+  <si>
+    <t>1890-123456789</t>
+  </si>
+  <si>
+    <t>Nguyễn Thành Trung</t>
+  </si>
+  <si>
+    <t>a6c62cb5498d0b50</t>
+  </si>
+  <si>
+    <t>49bc774dac11ee3b702b83359abb838818846c8a9cff07cb6542456e4ce11a57</t>
   </si>
   <si>
     <t>0kbwrl1cwnf8</t>
@@ -468,7 +510,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -569,7 +611,51 @@
         <v>26</v>
       </c>
       <c r="N2" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L3" t="s">
+        <v>39</v>
+      </c>
+      <c r="M3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N3" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>id</t>
   </si>
@@ -53,87 +53,6 @@
   </si>
   <si>
     <t>pinHash</t>
-  </si>
-  <si>
-    <t>szftt0p9akg</t>
-  </si>
-  <si>
-    <t>ucfg394p</t>
-  </si>
-  <si>
-    <t>Nhà hộ kinh doanh nhỏ Nguyễn Thành trung</t>
-  </si>
-  <si>
-    <t>Madam Thu Bakery, 21C, Võ Văn Tần, Ninh Kiều, Ninh Kiều District, Cần Thơ, 94111, Vietnam</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/search/?api=1&amp;query=10.032100,105.786400</t>
-  </si>
-  <si>
-    <t>2025-08-15T01:51:41.600Z</t>
-  </si>
-  <si>
-    <t>Nhà hẻm</t>
-  </si>
-  <si>
-    <t>01234567810</t>
-  </si>
-  <si>
-    <t>1890</t>
-  </si>
-  <si>
-    <t>123456789101</t>
-  </si>
-  <si>
-    <t>1890-123456789</t>
-  </si>
-  <si>
-    <t>Nguyễn Thành Trung</t>
-  </si>
-  <si>
-    <t>a6c62cb5498d0b50</t>
-  </si>
-  <si>
-    <t>49bc774dac11ee3b702b83359abb838818846c8a9cff07cb6542456e4ce11a57</t>
-  </si>
-  <si>
-    <t>0kbwrl1cwnf8</t>
-  </si>
-  <si>
-    <t>DEMOM9CC</t>
-  </si>
-  <si>
-    <t>Hộ kinh doanh Trần Văn A</t>
-  </si>
-  <si>
-    <t>02 Hòa Bình, Ninh Kiều, Cần Thơ</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/search/?api=1&amp;query=02%20H%C3%B2a%20B%C3%ACnh%2C%20Ninh%20Ki%E1%BB%81u%2C%20C%E1%BA%A7n%20Th%C6%A1</t>
-  </si>
-  <si>
-    <t>2025-08-15T01:18:36.878Z</t>
-  </si>
-  <si>
-    <t>Dòng mẫu để thử</t>
-  </si>
-  <si>
-    <t>0901234567</t>
-  </si>
-  <si>
-    <t>CN Cần Thơ II</t>
-  </si>
-  <si>
-    <t>012345678901</t>
-  </si>
-  <si>
-    <t>KH0001</t>
-  </si>
-  <si>
-    <t>Demo User</t>
-  </si>
-  <si>
-    <t/>
   </si>
 </sst>
 </file>
@@ -510,7 +429,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -570,94 +489,6 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M2" t="s">
-        <v>26</v>
-      </c>
-      <c r="N2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G3" t="s">
-        <v>34</v>
-      </c>
-      <c r="H3" t="s">
-        <v>35</v>
-      </c>
-      <c r="I3" t="s">
-        <v>36</v>
-      </c>
-      <c r="J3" t="s">
-        <v>37</v>
-      </c>
-      <c r="K3" t="s">
-        <v>38</v>
-      </c>
-      <c r="L3" t="s">
-        <v>39</v>
-      </c>
-      <c r="M3" t="s">
-        <v>40</v>
-      </c>
-      <c r="N3" t="s">
-        <v>40</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>id</t>
   </si>
@@ -53,6 +53,36 @@
   </si>
   <si>
     <t>pinHash</t>
+  </si>
+  <si>
+    <t>wm3pc5kieot</t>
+  </si>
+  <si>
+    <t>n3bk8u16</t>
+  </si>
+  <si>
+    <t>HHKD</t>
+  </si>
+  <si>
+    <t>Madam Thu Bakery, 21C, Võ Văn Tần, Ninh Kiều, Ninh Kiều District, Cần Thơ, 94111, Vietnam</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/search/?api=1&amp;query=10.032100,105.786400</t>
+  </si>
+  <si>
+    <t>2025-08-21T07:29:45.242Z</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Nguyễn Văn B</t>
+  </si>
+  <si>
+    <t>d7ee3a393285b163</t>
+  </si>
+  <si>
+    <t>f8fa057026afe9e0606ed5c0c911b036239a6d9486af784c90ea1edb7325a99a</t>
   </si>
 </sst>
 </file>
@@ -429,7 +459,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N1"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -489,6 +519,50 @@
         <v>13</v>
       </c>
     </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="30">
   <si>
     <t>id</t>
   </si>
@@ -55,6 +55,36 @@
     <t>pinHash</t>
   </si>
   <si>
+    <t>30em912l8wj</t>
+  </si>
+  <si>
+    <t>pretbgsw</t>
+  </si>
+  <si>
+    <t>Hộ kinh doanh</t>
+  </si>
+  <si>
+    <t>Madam Thu Bakery, 21C, Võ Văn Tần, Ninh Kiều, Ninh Kiều District, Cần Thơ, 94111, Vietnam</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/search/?api=1&amp;query=10.032100,105.786400</t>
+  </si>
+  <si>
+    <t>2025-08-21T07:30:22.697Z</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Nguyễn Văn B</t>
+  </si>
+  <si>
+    <t>3243bcc63be98bf8</t>
+  </si>
+  <si>
+    <t>1441c319972f62a62bfa8570c3f4f56c988ddea5dcec0830037775df5e4fcf85</t>
+  </si>
+  <si>
     <t>wm3pc5kieot</t>
   </si>
   <si>
@@ -64,19 +94,7 @@
     <t>HHKD</t>
   </si>
   <si>
-    <t>Madam Thu Bakery, 21C, Võ Văn Tần, Ninh Kiều, Ninh Kiều District, Cần Thơ, 94111, Vietnam</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/search/?api=1&amp;query=10.032100,105.786400</t>
-  </si>
-  <si>
     <t>2025-08-21T07:29:45.242Z</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Nguyễn Văn B</t>
   </si>
   <si>
     <t>d7ee3a393285b163</t>
@@ -459,7 +477,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -563,6 +581,50 @@
         <v>23</v>
       </c>
     </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N3" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="42">
   <si>
     <t>id</t>
   </si>
@@ -55,6 +55,36 @@
     <t>pinHash</t>
   </si>
   <si>
+    <t>6pnebyna1qy</t>
+  </si>
+  <si>
+    <t>y6psigka</t>
+  </si>
+  <si>
+    <t>CTY DD</t>
+  </si>
+  <si>
+    <t>Madam Thu Bakery, 21C, Võ Văn Tần, Ninh Kiều, Ninh Kiều District, Cần Thơ, 94111, Vietnam</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/search/?api=1&amp;query=10.032100,105.786400</t>
+  </si>
+  <si>
+    <t>2025-08-21T07:55:04.544Z</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Nguyễn Văn B</t>
+  </si>
+  <si>
+    <t>c65b856ae23afc01</t>
+  </si>
+  <si>
+    <t>76702bda86dc6ae4ee95cb4030618b5b629b03dfe751009561103e03c01ba096</t>
+  </si>
+  <si>
     <t>30em912l8wj</t>
   </si>
   <si>
@@ -64,21 +94,9 @@
     <t>Hộ kinh doanh</t>
   </si>
   <si>
-    <t>Madam Thu Bakery, 21C, Võ Văn Tần, Ninh Kiều, Ninh Kiều District, Cần Thơ, 94111, Vietnam</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/search/?api=1&amp;query=10.032100,105.786400</t>
-  </si>
-  <si>
     <t>2025-08-21T07:30:22.697Z</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>Nguyễn Văn B</t>
-  </si>
-  <si>
     <t>3243bcc63be98bf8</t>
   </si>
   <si>
@@ -101,6 +119,24 @@
   </si>
   <si>
     <t>f8fa057026afe9e0606ed5c0c911b036239a6d9486af784c90ea1edb7325a99a</t>
+  </si>
+  <si>
+    <t>mlgjppcugh</t>
+  </si>
+  <si>
+    <t>fz8k74w7</t>
+  </si>
+  <si>
+    <t>CTY ABC</t>
+  </si>
+  <si>
+    <t>2025-08-21T03:53:06.279Z</t>
+  </si>
+  <si>
+    <t>66518c627e61b99f</t>
+  </si>
+  <si>
+    <t>a4547957fdcf168de40476c75c95b2b909b17be6cc15cae03d4dadd6e38262a3</t>
   </si>
 </sst>
 </file>
@@ -477,7 +513,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -625,6 +661,94 @@
         <v>29</v>
       </c>
     </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M4" t="s">
+        <v>34</v>
+      </c>
+      <c r="N4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" t="s">
+        <v>21</v>
+      </c>
+      <c r="M5" t="s">
+        <v>40</v>
+      </c>
+      <c r="N5" t="s">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>id</t>
   </si>
@@ -53,90 +53,6 @@
   </si>
   <si>
     <t>pinHash</t>
-  </si>
-  <si>
-    <t>6pnebyna1qy</t>
-  </si>
-  <si>
-    <t>y6psigka</t>
-  </si>
-  <si>
-    <t>CTY DD</t>
-  </si>
-  <si>
-    <t>Madam Thu Bakery, 21C, Võ Văn Tần, Ninh Kiều, Ninh Kiều District, Cần Thơ, 94111, Vietnam</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/search/?api=1&amp;query=10.032100,105.786400</t>
-  </si>
-  <si>
-    <t>2025-08-21T07:55:04.544Z</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Nguyễn Văn B</t>
-  </si>
-  <si>
-    <t>c65b856ae23afc01</t>
-  </si>
-  <si>
-    <t>76702bda86dc6ae4ee95cb4030618b5b629b03dfe751009561103e03c01ba096</t>
-  </si>
-  <si>
-    <t>30em912l8wj</t>
-  </si>
-  <si>
-    <t>pretbgsw</t>
-  </si>
-  <si>
-    <t>Hộ kinh doanh</t>
-  </si>
-  <si>
-    <t>2025-08-21T07:30:22.697Z</t>
-  </si>
-  <si>
-    <t>3243bcc63be98bf8</t>
-  </si>
-  <si>
-    <t>1441c319972f62a62bfa8570c3f4f56c988ddea5dcec0830037775df5e4fcf85</t>
-  </si>
-  <si>
-    <t>wm3pc5kieot</t>
-  </si>
-  <si>
-    <t>n3bk8u16</t>
-  </si>
-  <si>
-    <t>HHKD</t>
-  </si>
-  <si>
-    <t>2025-08-21T07:29:45.242Z</t>
-  </si>
-  <si>
-    <t>d7ee3a393285b163</t>
-  </si>
-  <si>
-    <t>f8fa057026afe9e0606ed5c0c911b036239a6d9486af784c90ea1edb7325a99a</t>
-  </si>
-  <si>
-    <t>mlgjppcugh</t>
-  </si>
-  <si>
-    <t>fz8k74w7</t>
-  </si>
-  <si>
-    <t>CTY ABC</t>
-  </si>
-  <si>
-    <t>2025-08-21T03:53:06.279Z</t>
-  </si>
-  <si>
-    <t>66518c627e61b99f</t>
-  </si>
-  <si>
-    <t>a4547957fdcf168de40476c75c95b2b909b17be6cc15cae03d4dadd6e38262a3</t>
   </si>
 </sst>
 </file>
@@ -513,7 +429,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:N1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -573,182 +489,6 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M2" t="s">
-        <v>22</v>
-      </c>
-      <c r="N2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L3" t="s">
-        <v>21</v>
-      </c>
-      <c r="M3" t="s">
-        <v>28</v>
-      </c>
-      <c r="N3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K4" t="s">
-        <v>20</v>
-      </c>
-      <c r="L4" t="s">
-        <v>21</v>
-      </c>
-      <c r="M4" t="s">
-        <v>34</v>
-      </c>
-      <c r="N4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K5" t="s">
-        <v>20</v>
-      </c>
-      <c r="L5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M5" t="s">
-        <v>40</v>
-      </c>
-      <c r="N5" t="s">
-        <v>41</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>id</t>
   </si>
@@ -53,6 +53,36 @@
   </si>
   <si>
     <t>pinHash</t>
+  </si>
+  <si>
+    <t>4fizzqrs626</t>
+  </si>
+  <si>
+    <t>foidgiuw</t>
+  </si>
+  <si>
+    <t>HKD</t>
+  </si>
+  <si>
+    <t>Madam Thu Bakery, 21C, Võ Văn Tần, Ninh Kiều, Ninh Kiều District, Cần Thơ, 94111, Vietnam</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/search/?api=1&amp;query=10.032100,105.786400</t>
+  </si>
+  <si>
+    <t>2025-08-22T06:46:56.105Z</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Nguyễn Văn B</t>
+  </si>
+  <si>
+    <t>150fea0e0fdf86f5</t>
+  </si>
+  <si>
+    <t>178f60f6166cdc837bfab2bbc150a80dd6fc48d467309288fc27afb78a08279c</t>
   </si>
 </sst>
 </file>
@@ -429,7 +459,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N1"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -489,6 +519,50 @@
         <v>13</v>
       </c>
     </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="30">
   <si>
     <t>id</t>
   </si>
@@ -55,6 +55,36 @@
     <t>pinHash</t>
   </si>
   <si>
+    <t>ogodx9ovs7q</t>
+  </si>
+  <si>
+    <t>kd7046i0</t>
+  </si>
+  <si>
+    <t>CTY C</t>
+  </si>
+  <si>
+    <t>Madam Thu Bakery, 21C, Võ Văn Tần, Ninh Kiều, Ninh Kiều District, Cần Thơ, 94111, Vietnam</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/search/?api=1&amp;query=10.032100,105.786400</t>
+  </si>
+  <si>
+    <t>2025-08-22T07:01:47.591Z</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Nguyễn Văn B</t>
+  </si>
+  <si>
+    <t>c5fcc4ed3a14b662</t>
+  </si>
+  <si>
+    <t>d386e590702e53ddeea3640bdb394ee012354447df46f0682febd94210fb1411</t>
+  </si>
+  <si>
     <t>4fizzqrs626</t>
   </si>
   <si>
@@ -64,19 +94,7 @@
     <t>HKD</t>
   </si>
   <si>
-    <t>Madam Thu Bakery, 21C, Võ Văn Tần, Ninh Kiều, Ninh Kiều District, Cần Thơ, 94111, Vietnam</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/search/?api=1&amp;query=10.032100,105.786400</t>
-  </si>
-  <si>
     <t>2025-08-22T06:46:56.105Z</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Nguyễn Văn B</t>
   </si>
   <si>
     <t>150fea0e0fdf86f5</t>
@@ -459,7 +477,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -563,6 +581,50 @@
         <v>23</v>
       </c>
     </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N3" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>id</t>
   </si>
@@ -55,13 +55,13 @@
     <t>pinHash</t>
   </si>
   <si>
-    <t>ogodx9ovs7q</t>
-  </si>
-  <si>
-    <t>kd7046i0</t>
-  </si>
-  <si>
-    <t>CTY C</t>
+    <t>4fizzqrs626</t>
+  </si>
+  <si>
+    <t>foidgiuw</t>
+  </si>
+  <si>
+    <t>HKD</t>
   </si>
   <si>
     <t>Madam Thu Bakery, 21C, Võ Văn Tần, Ninh Kiều, Ninh Kiều District, Cần Thơ, 94111, Vietnam</t>
@@ -70,31 +70,13 @@
     <t>https://www.google.com/maps/search/?api=1&amp;query=10.032100,105.786400</t>
   </si>
   <si>
-    <t>2025-08-22T07:01:47.591Z</t>
+    <t>2025-08-22T06:46:56.105Z</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
     <t>Nguyễn Văn B</t>
-  </si>
-  <si>
-    <t>c5fcc4ed3a14b662</t>
-  </si>
-  <si>
-    <t>d386e590702e53ddeea3640bdb394ee012354447df46f0682febd94210fb1411</t>
-  </si>
-  <si>
-    <t>4fizzqrs626</t>
-  </si>
-  <si>
-    <t>foidgiuw</t>
-  </si>
-  <si>
-    <t>HKD</t>
-  </si>
-  <si>
-    <t>2025-08-22T06:46:56.105Z</t>
   </si>
   <si>
     <t>150fea0e0fdf86f5</t>
@@ -477,7 +459,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -581,50 +563,6 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L3" t="s">
-        <v>21</v>
-      </c>
-      <c r="M3" t="s">
-        <v>28</v>
-      </c>
-      <c r="N3" t="s">
-        <v>29</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>id</t>
   </si>
@@ -61,7 +61,7 @@
     <t>foidgiuw</t>
   </si>
   <si>
-    <t>HKD</t>
+    <t>Hộ Kinh Doanh</t>
   </si>
   <si>
     <t>Madam Thu Bakery, 21C, Võ Văn Tần, Ninh Kiều, Ninh Kiều District, Cần Thơ, 94111, Vietnam</t>
@@ -73,7 +73,19 @@
     <t>2025-08-22T06:46:56.105Z</t>
   </si>
   <si>
-    <t/>
+    <t>Nhà mặt tiền</t>
+  </si>
+  <si>
+    <t>01234567891</t>
+  </si>
+  <si>
+    <t>Cần Thơ II</t>
+  </si>
+  <si>
+    <t>123456789101</t>
+  </si>
+  <si>
+    <t>1890-000000000</t>
   </si>
   <si>
     <t>Nguyễn Văn B</t>
@@ -542,25 +554,25 @@
         <v>20</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="L2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="M2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="N2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
   <si>
     <t>id</t>
   </si>
@@ -55,6 +55,36 @@
     <t>pinHash</t>
   </si>
   <si>
+    <t>3ukwiw1n85x</t>
+  </si>
+  <si>
+    <t>01mq60rp</t>
+  </si>
+  <si>
+    <t>BAC</t>
+  </si>
+  <si>
+    <t>Madam Thu Bakery, 21C, Võ Văn Tần, Ninh Kiều, Ninh Kiều District, Cần Thơ, 94111, Vietnam</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/search/?api=1&amp;query=10.032100,105.786400</t>
+  </si>
+  <si>
+    <t>2025-08-22T08:39:32.647Z</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Nguyễn Văn B</t>
+  </si>
+  <si>
+    <t>68db92fc0a059591</t>
+  </si>
+  <si>
+    <t>e0dd258af995cdce51b0cf5989fa8ea2457eed2fba41f7ab9fd82820e7514628</t>
+  </si>
+  <si>
     <t>4fizzqrs626</t>
   </si>
   <si>
@@ -64,12 +94,6 @@
     <t>Hộ Kinh Doanh</t>
   </si>
   <si>
-    <t>Madam Thu Bakery, 21C, Võ Văn Tần, Ninh Kiều, Ninh Kiều District, Cần Thơ, 94111, Vietnam</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/search/?api=1&amp;query=10.032100,105.786400</t>
-  </si>
-  <si>
     <t>2025-08-22T06:46:56.105Z</t>
   </si>
   <si>
@@ -86,9 +110,6 @@
   </si>
   <si>
     <t>1890-000000000</t>
-  </si>
-  <si>
-    <t>Nguyễn Văn B</t>
   </si>
   <si>
     <t>150fea0e0fdf86f5</t>
@@ -471,7 +492,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -554,25 +575,69 @@
         <v>20</v>
       </c>
       <c r="H2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" t="s">
         <v>21</v>
       </c>
-      <c r="I2" t="s">
+      <c r="M2" t="s">
         <v>22</v>
       </c>
-      <c r="J2" t="s">
+      <c r="N2" t="s">
         <v>23</v>
       </c>
-      <c r="K2" t="s">
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>24</v>
       </c>
-      <c r="L2" t="s">
+      <c r="B3" t="s">
         <v>25</v>
       </c>
-      <c r="M2" t="s">
+      <c r="C3" t="s">
         <v>26</v>
       </c>
-      <c r="N2" t="s">
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
         <v>27</v>
+      </c>
+      <c r="G3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" t="s">
+        <v>33</v>
+      </c>
+      <c r="N3" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
